--- a/OOSEstimates.xlsx
+++ b/OOSEstimates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Submit RMSE</t>
   </si>
@@ -66,6 +66,48 @@
   </si>
   <si>
     <t>Component Model Type</t>
+  </si>
+  <si>
+    <t>Model #</t>
+  </si>
+  <si>
+    <t>xgbTree</t>
+  </si>
+  <si>
+    <t>xgbLinear</t>
+  </si>
+  <si>
+    <t>svmLinear3</t>
+  </si>
+  <si>
+    <t>cubist</t>
+  </si>
+  <si>
+    <t>bstTree</t>
+  </si>
+  <si>
+    <t>glm</t>
+  </si>
+  <si>
+    <t>kernelpls</t>
+  </si>
+  <si>
+    <t>lars</t>
+  </si>
+  <si>
+    <t>glmboost</t>
+  </si>
+  <si>
+    <t>Gradient Boosted Model 3</t>
+  </si>
+  <si>
+    <t>Linear Regression 4</t>
+  </si>
+  <si>
+    <t>parRF</t>
+  </si>
+  <si>
+    <t>Bagged MARS 2</t>
   </si>
 </sst>
 </file>
@@ -383,22 +425,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -414,8 +456,11 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -431,8 +476,11 @@
       <c r="E2">
         <v>0.11831999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -448,8 +496,11 @@
       <c r="E3">
         <v>0.12234</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -465,8 +516,11 @@
       <c r="E4">
         <v>0.12506</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -482,8 +536,11 @@
       <c r="E5">
         <v>0.12594</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -499,8 +556,11 @@
       <c r="E6">
         <v>0.12536</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -516,8 +576,11 @@
       <c r="E7">
         <v>0.12506</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -533,8 +596,11 @@
       <c r="E8">
         <v>0.12914</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -550,8 +616,11 @@
       <c r="E9">
         <v>0.12334000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -566,6 +635,230 @@
       </c>
       <c r="E10">
         <v>0.12623999999999999</v>
+      </c>
+      <c r="F10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>7.3249239999999993E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.1221256</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>2.2343479999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.1285828</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>0.11123391000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.1193801</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.11298654</v>
+      </c>
+      <c r="D14">
+        <v>0.130912</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.10734249999999999</v>
+      </c>
+      <c r="D15">
+        <v>0.10734249999999999</v>
+      </c>
+      <c r="F15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>9.4882690000000006E-2</v>
+      </c>
+      <c r="D16">
+        <v>0.1258061</v>
+      </c>
+      <c r="F16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>5.4375470000000002E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.1310653</v>
+      </c>
+      <c r="F17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0.10114860000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.12639929999999999</v>
+      </c>
+      <c r="F18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>0.11623717</v>
+      </c>
+      <c r="D19">
+        <v>0.1266806</v>
+      </c>
+      <c r="F19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0.10321822</v>
+      </c>
+      <c r="D20">
+        <v>0.1176804</v>
+      </c>
+      <c r="F20">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0.11800834</v>
+      </c>
+      <c r="D21">
+        <v>0.1249355</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>9.4551999999999997E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.1232447</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0.10114860000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.12639929999999999</v>
+      </c>
+      <c r="F23">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/OOSEstimates.xlsx
+++ b/OOSEstimates.xlsx
@@ -427,9 +427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -776,7 +774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>

--- a/OOSEstimates.xlsx
+++ b/OOSEstimates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Submit RMSE</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Bagged MARS 2</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -425,9 +428,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -438,7 +443,7 @@
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -458,7 +463,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -478,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -498,7 +503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -518,7 +523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -538,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -558,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -578,7 +583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -598,7 +603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -618,7 +623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -638,7 +643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -655,7 +660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -672,7 +677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -688,8 +693,11 @@
       <c r="F13">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -706,7 +714,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -722,8 +730,11 @@
       <c r="F15">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -740,7 +751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -757,7 +768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -774,7 +785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -791,7 +802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -807,8 +818,11 @@
       <c r="F20">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -825,7 +839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -842,7 +856,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>

--- a/OOSEstimates.xlsx
+++ b/OOSEstimates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Submit RMSE</t>
   </si>
@@ -482,6 +482,9 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -522,6 +525,9 @@
       <c r="F4">
         <v>6</v>
       </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -542,6 +548,9 @@
       <c r="F5">
         <v>8</v>
       </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -582,6 +591,9 @@
       <c r="F7">
         <v>10</v>
       </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -601,6 +613,9 @@
       </c>
       <c r="F8">
         <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
